--- a/data/trans_orig/P6504-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70745B36-4ADA-4B4A-8004-E12641B8F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53198F29-9A34-4308-A3E8-20F5396489ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4F716DC-C9F9-4E99-B1D4-D79766D6C165}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47287061-CAAE-48F5-BB87-4E4BC7373049}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>42,27%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>29,75%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,106 @@
     <t>51,42%</t>
   </si>
   <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>21,61%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,208 +305,214 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB77A8D3-F4C6-4D63-8F2D-25714BB69EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905E877E-03D4-4CB9-AD37-D87F398F22EE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1410,10 +1413,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -1422,13 +1425,13 @@
         <v>19800</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -1437,13 +1440,13 @@
         <v>234591</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1461,13 @@
         <v>44783</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1473,13 +1476,13 @@
         <v>7910</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -1488,13 +1491,13 @@
         <v>52694</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1565,13 @@
         <v>325732</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>248</v>
@@ -1577,13 +1580,13 @@
         <v>258935</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>563</v>
@@ -1592,13 +1595,13 @@
         <v>584667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1616,13 @@
         <v>54598</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -1628,13 +1631,13 @@
         <v>21428</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
@@ -1643,13 +1646,13 @@
         <v>76026</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1667,13 @@
         <v>14794</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1679,13 +1682,13 @@
         <v>9814</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1694,10 +1697,10 @@
         <v>24608</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>114</v>
@@ -1972,10 +1975,10 @@
         <v>94866</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>152</v>
@@ -2008,7 +2011,7 @@
         <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53198F29-9A34-4308-A3E8-20F5396489ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C1D80D6-4907-4E32-BC85-60EB9B427C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47287061-CAAE-48F5-BB87-4E4BC7373049}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40FF3FE2-1885-4F30-99BF-65DD18974BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según la exposición a bajas temperaturas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>42,27%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>29,75%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,85 +197,88 @@
     <t>51,42%</t>
   </si>
   <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>21,61%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>5,21%</t>
@@ -287,16 +290,16 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,214 +308,208 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>8,49%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905E877E-03D4-4CB9-AD37-D87F398F22EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6C4551-695B-40C5-9299-B0C20E98ADCD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1413,10 +1410,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -1425,13 +1422,13 @@
         <v>19800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -1440,13 +1437,13 @@
         <v>234591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,13 +1458,13 @@
         <v>44783</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1476,13 +1473,13 @@
         <v>7910</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -1491,13 +1488,13 @@
         <v>52694</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1550,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1562,13 @@
         <v>325732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>248</v>
@@ -1580,13 +1577,13 @@
         <v>258935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>563</v>
@@ -1595,13 +1592,13 @@
         <v>584667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1613,13 @@
         <v>54598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -1631,13 +1628,13 @@
         <v>21428</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>71</v>
@@ -1646,13 +1643,13 @@
         <v>76026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,10 +1667,10 @@
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1682,13 +1679,13 @@
         <v>9814</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1697,13 +1694,13 @@
         <v>24608</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1715,13 @@
         <v>8619</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1733,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1748,13 +1745,13 @@
         <v>8619</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1819,13 @@
         <v>1061366</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>788</v>
@@ -1837,13 +1834,13 @@
         <v>820836</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1803</v>
@@ -1852,13 +1849,13 @@
         <v>1882201</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1870,13 @@
         <v>403993</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -1888,13 +1885,13 @@
         <v>142417</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -1903,13 +1900,13 @@
         <v>546410</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1921,13 @@
         <v>340687</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -1939,13 +1936,13 @@
         <v>40573</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>366</v>
@@ -1954,13 +1951,13 @@
         <v>381260</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1972,13 @@
         <v>94866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -1990,13 +1987,13 @@
         <v>20542</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -2005,13 +2002,13 @@
         <v>115408</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6504-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C1D80D6-4907-4E32-BC85-60EB9B427C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEC0A67-032F-4561-8899-D4D56C60D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40FF3FE2-1885-4F30-99BF-65DD18974BB2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D90BCAD-A128-431D-84E5-944C62549E50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>42,27%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>49,97%</t>
   </si>
   <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>29,75%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,19 +197,19 @@
     <t>51,42%</t>
   </si>
   <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>60,67%</t>
@@ -218,88 +218,88 @@
     <t>58,32%</t>
   </si>
   <si>
-    <t>63,03%</t>
+    <t>63,14%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,76 +308,79 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,49%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>5,93%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>5,24%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -386,7 +389,7 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -401,115 +404,112 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>64,34%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6C4551-695B-40C5-9299-B0C20E98ADCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4777B1E4-99EF-48DE-B1CF-23917DE4362F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1649,7 +1649,7 @@
         <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1664,13 @@
         <v>14794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1679,13 +1679,13 @@
         <v>9814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -1694,13 +1694,13 @@
         <v>24608</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>8619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1745,13 +1745,13 @@
         <v>8619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1819,13 @@
         <v>1061366</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>788</v>
@@ -1834,13 +1834,13 @@
         <v>820836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1803</v>
@@ -1849,13 +1849,13 @@
         <v>1882201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1870,13 @@
         <v>403993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -1885,13 +1885,13 @@
         <v>142417</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -1900,13 +1900,13 @@
         <v>546410</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1921,13 @@
         <v>340687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>39</v>
@@ -1936,13 +1936,13 @@
         <v>40573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>366</v>
@@ -1951,13 +1951,13 @@
         <v>381260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>94866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -1987,13 +1987,13 @@
         <v>20542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -2002,13 +2002,13 @@
         <v>115408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6504-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6504-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEC0A67-032F-4561-8899-D4D56C60D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1422617-1169-4D36-A4B4-82E1D97CCB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D90BCAD-A128-431D-84E5-944C62549E50}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2DEAC271-F6B5-4144-862B-8DF56C75C9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4777B1E4-99EF-48DE-B1CF-23917DE4362F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93074098-8138-4024-A1C8-40527808ED3A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1778,7 +1778,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
